--- a/Docs/Liste des employés.xlsx
+++ b/Docs/Liste des employés.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Nom</t>
   </si>
@@ -27,39 +27,24 @@
     <t>Catégorie</t>
   </si>
   <si>
-    <t>Kazutsugi Nami</t>
-  </si>
-  <si>
     <t>Chargé de recherche</t>
   </si>
   <si>
     <t>Scientifique</t>
   </si>
   <si>
-    <t>Salah Ezzedine</t>
-  </si>
-  <si>
     <t>Technicien de laboratoire</t>
   </si>
   <si>
     <t>Aide le chargé de recherche</t>
   </si>
   <si>
-    <t>Charlottes Morses</t>
-  </si>
-  <si>
-    <t>Romulus Brinkley</t>
-  </si>
-  <si>
     <t>Scientifique chef</t>
   </si>
   <si>
     <t>Supervise la recherche clinique</t>
   </si>
   <si>
-    <t>Allena Standford</t>
-  </si>
-  <si>
     <t>Chef de produit</t>
   </si>
   <si>
@@ -69,34 +54,19 @@
     <t>Responsable d'un ou plusieurs médicaments.</t>
   </si>
   <si>
-    <t>Bernad Madoff</t>
-  </si>
-  <si>
     <t>Directeur régional</t>
   </si>
   <si>
-    <t>Vincent Lacroix</t>
-  </si>
-  <si>
     <t>Employé</t>
   </si>
   <si>
     <t>Aide le directeur régional</t>
   </si>
   <si>
-    <t>Carla Ponzi</t>
-  </si>
-  <si>
     <t>Aide le chef de produit</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>MDP</t>
-  </si>
-  <si>
-    <t>Code</t>
   </si>
   <si>
     <t>Peut concevoir de nouvelles molécules pour 
@@ -123,30 +93,6 @@
   </si>
   <si>
     <t>Description de la personnalité</t>
-  </si>
-  <si>
-    <t>lacroix.vt</t>
-  </si>
-  <si>
-    <t>nami.ki</t>
-  </si>
-  <si>
-    <t>ezzedine.sh</t>
-  </si>
-  <si>
-    <t>morses.cs</t>
-  </si>
-  <si>
-    <t>brinkley.rs</t>
-  </si>
-  <si>
-    <t>standford.aa</t>
-  </si>
-  <si>
-    <t>madoff.bd</t>
-  </si>
-  <si>
-    <t>ponzi.ca</t>
   </si>
   <si>
     <t>Adore créer des bouquets de fleurs.</t>
@@ -192,31 +138,82 @@
 En prend tous les jours à 3heures.</t>
   </si>
   <si>
-    <t>cAfE</t>
-  </si>
-  <si>
-    <t>Framboise3</t>
-  </si>
-  <si>
     <t>Adore le thé. Il veut recréer artificielement le goût du thé gyokuro. Il est dessus depuis 7 mois.</t>
   </si>
   <si>
-    <t>Gyokuro7</t>
-  </si>
-  <si>
-    <t>12Roses</t>
-  </si>
-  <si>
-    <t>Joséphine21</t>
-  </si>
-  <si>
-    <t>Il est fou amoureux de sa fiancée Joséphine. La cérémonie a lieu le 21.</t>
-  </si>
-  <si>
     <t>Mauvais perdant, il a beaucoup de dettes. Il a toujours une carte d'As de tréfle sur lui.</t>
   </si>
   <si>
-    <t>Poker14</t>
+    <t>Prenom</t>
+  </si>
+  <si>
+    <t>Nami</t>
+  </si>
+  <si>
+    <t>Raphael</t>
+  </si>
+  <si>
+    <t>agathe</t>
+  </si>
+  <si>
+    <t>gyokuro</t>
+  </si>
+  <si>
+    <t>roses</t>
+  </si>
+  <si>
+    <t>cafe</t>
+  </si>
+  <si>
+    <t>poker</t>
+  </si>
+  <si>
+    <t>Charlottes</t>
+  </si>
+  <si>
+    <t>framboise</t>
+  </si>
+  <si>
+    <t>Romulus</t>
+  </si>
+  <si>
+    <t>Allena</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>Kazutsugi</t>
+  </si>
+  <si>
+    <t>Ezzedine</t>
+  </si>
+  <si>
+    <t>Morses</t>
+  </si>
+  <si>
+    <t>Brinkley</t>
+  </si>
+  <si>
+    <t>Standford</t>
+  </si>
+  <si>
+    <t>Madoff</t>
+  </si>
+  <si>
+    <t>Lacroix</t>
+  </si>
+  <si>
+    <t>Ponzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il est fou amoureux de sa fiancée Agathe. </t>
   </si>
 </sst>
 </file>
@@ -280,31 +277,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Ebrima"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <b val="0"/>
@@ -532,17 +505,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:H9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="4">
-  <autoFilter ref="A1:H9"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Nom" dataDxfId="8"/>
-    <tableColumn id="2" name="Poste" dataDxfId="7"/>
-    <tableColumn id="3" name="Catégorie" dataDxfId="6"/>
-    <tableColumn id="4" name="Description du poste" dataDxfId="5"/>
-    <tableColumn id="5" name="ID" dataDxfId="3"/>
-    <tableColumn id="6" name="MDP" dataDxfId="2"/>
-    <tableColumn id="7" name="Code" dataDxfId="1"/>
-    <tableColumn id="8" name="Description de la personnalité" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G9"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Nom" dataDxfId="6"/>
+    <tableColumn id="7" name="Prenom" dataDxfId="0"/>
+    <tableColumn id="6" name="MDP" dataDxfId="1"/>
+    <tableColumn id="2" name="Poste" dataDxfId="5"/>
+    <tableColumn id="3" name="Catégorie" dataDxfId="4"/>
+    <tableColumn id="4" name="Description du poste" dataDxfId="3"/>
+    <tableColumn id="8" name="Description de la personnalité" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -835,237 +807,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
